--- a/temp/importFichier.xlsx
+++ b/temp/importFichier.xlsx
@@ -3923,7 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -3977,7 +3977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A2" s="4">
         <v>4108610</v>
       </c>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A3" s="4">
         <v>4108478</v>
       </c>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="8" spans="1:11" s="3" customFormat="1">
       <c r="A8" s="4">
         <v>2348696</v>
       </c>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="9" spans="1:11" s="3" customFormat="1">
       <c r="A9" s="4">
         <v>2560883</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="10" spans="1:11" s="3" customFormat="1">
       <c r="A10" s="4">
         <v>2016360</v>
       </c>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="11" spans="1:11" s="3" customFormat="1">
       <c r="A11" s="4">
         <v>2016135</v>
       </c>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="12" spans="1:11" s="3" customFormat="1">
       <c r="A12" s="4">
         <v>2016136</v>
       </c>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="13" spans="1:11" s="3" customFormat="1">
       <c r="A13" s="4">
         <v>84026</v>
       </c>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="14" spans="1:11" s="3" customFormat="1">
       <c r="A14" s="4">
         <v>1733774</v>
       </c>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="15" spans="1:11" s="3" customFormat="1">
       <c r="A15" s="4">
         <v>718041</v>
       </c>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="16" spans="1:11" s="3" customFormat="1">
       <c r="A16" s="4">
         <v>2643299</v>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A17" s="4">
         <v>4465927</v>
       </c>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A18" s="4">
         <v>2084715</v>
       </c>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A19" s="4">
         <v>2084800</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A20" s="4">
         <v>2084803</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A21" s="4">
         <v>2084802</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A22" s="4">
         <v>2084801</v>
       </c>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A23" s="4">
         <v>2084804</v>
       </c>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A24" s="4">
         <v>2084805</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A25" s="4">
         <v>2084714</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A26" s="4">
         <v>2084716</v>
       </c>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A27" s="4">
         <v>2084799</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A28" s="4">
         <v>2084760</v>
       </c>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="29" spans="1:11" s="3" customFormat="1">
       <c r="A29" s="4">
         <v>985141</v>
       </c>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A30" s="4">
         <v>4347288</v>
       </c>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A31" s="4">
         <v>4347290</v>
       </c>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A32" s="4">
         <v>1843680</v>
       </c>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A33" s="4">
         <v>1843681</v>
       </c>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="34" spans="1:11" s="3" customFormat="1">
       <c r="A34" s="4">
         <v>4251796</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A35" s="4">
         <v>2305586</v>
       </c>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A36" s="4">
         <v>4485805</v>
       </c>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A37" s="4">
         <v>2863839</v>
       </c>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A38" s="4">
         <v>2863838</v>
       </c>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A39" s="4">
         <v>2863829</v>
       </c>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A40" s="4">
         <v>2863832</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A41" s="4">
         <v>1243241</v>
       </c>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A42" s="4">
         <v>4347235</v>
       </c>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="43" spans="1:11" s="3" customFormat="1">
       <c r="A43" s="4">
         <v>1284168</v>
       </c>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="44" spans="1:11" s="3" customFormat="1">
       <c r="A44" s="4">
         <v>2348695</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A46" s="4">
         <v>3620439</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A47" s="4">
         <v>3126631</v>
       </c>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="48" spans="1:11" s="3" customFormat="1">
       <c r="A48" s="4">
         <v>1607683</v>
       </c>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="49" spans="1:11" s="3" customFormat="1">
       <c r="A49" s="4">
         <v>2417415</v>
       </c>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="50" spans="1:11" s="3" customFormat="1">
       <c r="A50" s="4">
         <v>2016085</v>
       </c>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="51" spans="1:11" s="3" customFormat="1">
       <c r="A51" s="4">
         <v>2119741</v>
       </c>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="52" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A52" s="4">
         <v>2417507</v>
       </c>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A53" s="4">
         <v>1293485</v>
       </c>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A54" s="4">
         <v>4553382</v>
       </c>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="55" spans="1:11" s="3" customFormat="1">
       <c r="A55" s="4">
         <v>1990842</v>
       </c>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="56" spans="1:11" s="3" customFormat="1">
       <c r="A56" s="4">
         <v>2348693</v>
       </c>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="57" spans="1:11" s="3" customFormat="1">
       <c r="A57" s="4">
         <v>2305660</v>
       </c>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="58" spans="1:11" s="3" customFormat="1">
       <c r="A58" s="4">
         <v>1280485</v>
       </c>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="59" spans="1:11" s="3" customFormat="1">
       <c r="A59" s="4">
         <v>1109034</v>
       </c>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="60" spans="1:11" s="3" customFormat="1">
       <c r="A60" s="4">
         <v>1607681</v>
       </c>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A61" s="4">
         <v>2417413</v>
       </c>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="62" spans="1:11" s="3" customFormat="1">
       <c r="A62" s="4">
         <v>3221806</v>
       </c>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="63" spans="1:11" s="3" customFormat="1">
       <c r="A63" s="4">
         <v>2560876</v>
       </c>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="64" spans="1:11" s="3" customFormat="1">
       <c r="A64" s="4">
         <v>1607660</v>
       </c>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="65" spans="1:11" s="3" customFormat="1">
       <c r="A65" s="4">
         <v>2560881</v>
       </c>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="66" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A66" s="4">
         <v>1514906</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="67" spans="1:11" s="3" customFormat="1">
       <c r="A67" s="4">
         <v>1932504</v>
       </c>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="68" spans="1:11" s="3" customFormat="1">
       <c r="A68" s="4">
         <v>4173404</v>
       </c>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="69" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A69" s="4">
         <v>1898257</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="70" spans="1:11" s="3" customFormat="1">
       <c r="A70" s="4">
         <v>2698013</v>
       </c>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="71" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A71" s="4">
         <v>1990839</v>
       </c>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="72" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A72" s="4">
         <v>2305428</v>
       </c>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="73" spans="1:11" s="3" customFormat="1">
       <c r="A73" s="4">
         <v>1280490</v>
       </c>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="74" spans="1:11" s="3" customFormat="1">
       <c r="A74" s="4">
         <v>2016366</v>
       </c>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="75" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A75" s="4">
         <v>2305670</v>
       </c>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="76" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A76" s="4">
         <v>2305429</v>
       </c>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="77" spans="1:11" s="3" customFormat="1">
       <c r="A77" s="4">
         <v>1280489</v>
       </c>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="78" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A78" s="4">
         <v>2016364</v>
       </c>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="79" spans="1:11" s="3" customFormat="1">
       <c r="A79" s="4">
         <v>2305665</v>
       </c>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="80" spans="1:11" s="3" customFormat="1">
       <c r="A80" s="4">
         <v>1277412</v>
       </c>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="81" spans="1:11" s="3" customFormat="1">
       <c r="A81" s="4">
         <v>2016367</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="82" spans="1:11" s="3" customFormat="1">
       <c r="A82" s="4">
         <v>1879234</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="83" spans="1:11" s="3" customFormat="1">
       <c r="A83" s="4">
         <v>2314607</v>
       </c>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="84" spans="1:11" s="3" customFormat="1">
       <c r="A84" s="4">
         <v>1496773</v>
       </c>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A85" s="4">
         <v>2119784</v>
       </c>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="86" spans="1:11" s="3" customFormat="1">
       <c r="A86" s="4">
         <v>2721303</v>
       </c>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="87" spans="1:11" s="3" customFormat="1">
       <c r="A87" s="4">
         <v>1879647</v>
       </c>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="88" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A88" s="4">
         <v>2721305</v>
       </c>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="89" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A89" s="4">
         <v>2721310</v>
       </c>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="90" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A90" s="4">
         <v>4553384</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A91" s="4">
         <v>1356692</v>
       </c>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="92" spans="1:11" s="3" customFormat="1">
       <c r="A92" s="4">
         <v>1990844</v>
       </c>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="93" spans="1:11" s="3" customFormat="1">
       <c r="A93" s="4">
         <v>2348691</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="94" spans="1:11" s="3" customFormat="1">
       <c r="A94" s="4">
         <v>2305662</v>
       </c>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="95" spans="1:11" s="3" customFormat="1">
       <c r="A95" s="4">
         <v>1277413</v>
       </c>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="96" spans="1:11" s="3" customFormat="1">
       <c r="A96" s="4">
         <v>1607685</v>
       </c>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="97" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A97" s="4">
         <v>2417409</v>
       </c>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="98" spans="1:11" s="3" customFormat="1">
       <c r="A98" s="4">
         <v>2016363</v>
       </c>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="99" spans="1:11" s="3" customFormat="1">
       <c r="A99" s="4">
         <v>1607684</v>
       </c>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="100" spans="1:11" s="3" customFormat="1">
       <c r="A100" s="4">
         <v>2067762</v>
       </c>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A101" s="4">
         <v>2107580</v>
       </c>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A102" s="4">
         <v>4027015</v>
       </c>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="103" spans="1:11" s="3" customFormat="1">
       <c r="A103" s="4">
         <v>4027008</v>
       </c>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="104" spans="1:11" s="3" customFormat="1">
       <c r="A104" s="4">
         <v>2560884</v>
       </c>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="105" spans="1:11" s="3" customFormat="1">
       <c r="A105" s="4">
         <v>968973</v>
       </c>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="106" spans="1:11" s="3" customFormat="1">
       <c r="A106" s="4">
         <v>1280494</v>
       </c>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="107" spans="1:11" s="3" customFormat="1">
       <c r="A107" s="4">
         <v>3221809</v>
       </c>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="108" spans="1:11" s="3" customFormat="1">
       <c r="A108" s="4">
         <v>2721307</v>
       </c>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="112" spans="1:11" s="3" customFormat="1">
       <c r="A112" s="4">
         <v>1921340</v>
       </c>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="113" spans="1:11" s="3" customFormat="1">
       <c r="A113" s="4">
         <v>1591615</v>
       </c>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="114" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A114" s="4">
         <v>1386876</v>
       </c>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="115" spans="1:11" s="3" customFormat="1">
       <c r="A115" s="4">
         <v>1441426</v>
       </c>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="116" spans="1:11" s="3" customFormat="1">
       <c r="A116" s="4">
         <v>1460757</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="117" spans="1:11" s="3" customFormat="1">
       <c r="A117" s="4">
         <v>1441425</v>
       </c>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="118" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A118" s="4">
         <v>2096935</v>
       </c>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="120" spans="1:11" s="3" customFormat="1">
       <c r="A120" s="4">
         <v>746921</v>
       </c>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="K120" s="4"/>
     </row>
-    <row r="121" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="121" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A121" s="4">
         <v>1514909</v>
       </c>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A122" s="4">
         <v>4553383</v>
       </c>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="K122" s="4"/>
     </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A123" s="4">
         <v>1356476</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="124" spans="1:11" s="3" customFormat="1">
       <c r="A124" s="4">
         <v>1990843</v>
       </c>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="K124" s="4"/>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="125" spans="1:11" s="3" customFormat="1">
       <c r="A125" s="4">
         <v>2348692</v>
       </c>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="K125" s="4"/>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="126" spans="1:11" s="3" customFormat="1">
       <c r="A126" s="4">
         <v>2305661</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="127" spans="1:11" s="3" customFormat="1">
       <c r="A127" s="4">
         <v>1280445</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="128" spans="1:11" s="3" customFormat="1">
       <c r="A128" s="4">
         <v>1109035</v>
       </c>
@@ -8162,7 +8162,7 @@
       </c>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="129" spans="1:11" s="3" customFormat="1">
       <c r="A129" s="4">
         <v>3221805</v>
       </c>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="130" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A130" s="4">
         <v>1514908</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="131" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A131" s="4">
         <v>1652066</v>
       </c>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="132" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A132" s="4">
         <v>1189698</v>
       </c>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="133" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A133" s="4">
         <v>4553320</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="134" spans="1:11" s="3" customFormat="1">
       <c r="A134" s="4">
         <v>2305149</v>
       </c>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="135" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A135" s="4">
         <v>2417414</v>
       </c>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="136" spans="1:11" s="3" customFormat="1">
       <c r="A136" s="4">
         <v>2305663</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="137" spans="1:11" s="3" customFormat="1">
       <c r="A137" s="4">
         <v>2111747</v>
       </c>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="138" spans="1:11" s="3" customFormat="1">
       <c r="A138" s="4">
         <v>1553532</v>
       </c>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="139" spans="1:11" s="3" customFormat="1">
       <c r="A139" s="4">
         <v>1239686</v>
       </c>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="140" spans="1:11" s="3" customFormat="1">
       <c r="A140" s="4">
         <v>3221807</v>
       </c>
@@ -8558,7 +8558,7 @@
       </c>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="141" spans="1:11" s="3" customFormat="1">
       <c r="A141" s="4">
         <v>2721304</v>
       </c>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="142" spans="1:11" s="3" customFormat="1">
       <c r="A142" s="4">
         <v>3351643</v>
       </c>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="K142" s="4"/>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="143" spans="1:11" s="3" customFormat="1">
       <c r="A143" s="4">
         <v>1879646</v>
       </c>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="144" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A144" s="4">
         <v>1503168</v>
       </c>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="145" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A145" s="4">
         <v>1553533</v>
       </c>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="146" spans="1:11" s="3" customFormat="1">
       <c r="A146" s="4">
         <v>1607658</v>
       </c>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="147" spans="1:11" s="3" customFormat="1">
       <c r="A147" s="4">
         <v>2417508</v>
       </c>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="148" spans="1:11" s="3" customFormat="1">
       <c r="A148" s="4">
         <v>2016362</v>
       </c>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="149" spans="1:11" s="3" customFormat="1">
       <c r="A149" s="4">
         <v>3169919</v>
       </c>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="150" spans="1:11" s="3" customFormat="1">
       <c r="A150" s="4">
         <v>3221808</v>
       </c>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="151" spans="1:11" s="3" customFormat="1">
       <c r="A151" s="4">
         <v>428911</v>
       </c>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="152" spans="1:11" s="3" customFormat="1">
       <c r="A152" s="4">
         <v>428912</v>
       </c>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="154" spans="1:11" s="3" customFormat="1">
       <c r="A154" s="4">
         <v>1990845</v>
       </c>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="155" spans="1:11" s="3" customFormat="1">
       <c r="A155" s="4">
         <v>2721306</v>
       </c>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="156" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A156" s="4">
         <v>2780454</v>
       </c>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="157" spans="1:11" s="3" customFormat="1">
       <c r="A157" s="4">
         <v>852213</v>
       </c>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="158" spans="1:11" s="3" customFormat="1">
       <c r="A158" s="4">
         <v>940259</v>
       </c>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="159" spans="1:11" s="3" customFormat="1">
       <c r="A159" s="4">
         <v>852214</v>
       </c>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="160" spans="1:11" s="3" customFormat="1">
       <c r="A160" s="4">
         <v>940262</v>
       </c>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="165" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A165" s="4">
         <v>2069665</v>
       </c>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="166" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A166" s="4">
         <v>4315889</v>
       </c>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="174" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A174" s="4">
         <v>1990838</v>
       </c>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="K174" s="4"/>
     </row>
-    <row r="175" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="175" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A175" s="4">
         <v>2610496</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="176" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A176" s="4">
         <v>2611233</v>
       </c>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="K176" s="4"/>
     </row>
-    <row r="177" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="177" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A177" s="4">
         <v>4465895</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="178" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A178" s="4">
         <v>4465896</v>
       </c>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="179" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A179" s="4">
         <v>4465898</v>
       </c>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="180" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A180" s="4">
         <v>4465897</v>
       </c>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="181" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A181" s="4">
         <v>4465933</v>
       </c>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="182" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A182" s="4">
         <v>4465935</v>
       </c>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="183" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A183" s="4">
         <v>4465937</v>
       </c>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="184" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A184" s="4">
         <v>4465936</v>
       </c>
@@ -10010,7 +10010,7 @@
       </c>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="185" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A185" s="4">
         <v>4465934</v>
       </c>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="K186" s="4"/>
     </row>
-    <row r="187" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="187" spans="1:11" s="3" customFormat="1">
       <c r="A187" s="4">
         <v>1454652</v>
       </c>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="188" spans="1:11" s="3" customFormat="1">
       <c r="A188" s="4">
         <v>1454648</v>
       </c>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="189" spans="1:11" s="3" customFormat="1">
       <c r="A189" s="4">
         <v>1454653</v>
       </c>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="K189" s="4"/>
     </row>
-    <row r="190" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="190" spans="1:11" s="3" customFormat="1">
       <c r="A190" s="4">
         <v>1454655</v>
       </c>
@@ -10208,7 +10208,7 @@
       </c>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="191" spans="1:11" s="3" customFormat="1">
       <c r="A191" s="4">
         <v>1454649</v>
       </c>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="K191" s="4"/>
     </row>
-    <row r="192" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="192" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A192" s="4">
         <v>4108541</v>
       </c>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="193" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A193" s="4">
         <v>4108551</v>
       </c>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="194" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A194" s="4">
         <v>4108552</v>
       </c>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="195" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A195" s="4">
         <v>4108543</v>
       </c>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="196" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A196" s="4">
         <v>4108544</v>
       </c>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="197" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A197" s="4">
         <v>4108540</v>
       </c>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="K197" s="4"/>
     </row>
-    <row r="198" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="198" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A198" s="4">
         <v>4108539</v>
       </c>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="K198" s="4"/>
     </row>
-    <row r="199" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="199" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A199" s="4">
         <v>4108553</v>
       </c>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="200" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A200" s="4">
         <v>4108555</v>
       </c>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="201" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A201" s="4">
         <v>4108561</v>
       </c>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="202" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A202" s="4">
         <v>4108559</v>
       </c>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="203" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A203" s="4">
         <v>4108560</v>
       </c>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="204" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A204" s="4">
         <v>4108563</v>
       </c>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="205" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A205" s="4">
         <v>4108564</v>
       </c>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="206" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A206" s="4">
         <v>3529315</v>
       </c>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="207" spans="1:11" s="3" customFormat="1">
       <c r="A207" s="4">
         <v>4108565</v>
       </c>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="208" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A208" s="4">
         <v>4108566</v>
       </c>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="209" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A209" s="4">
         <v>4108569</v>
       </c>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="210" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A210" s="4">
         <v>4108422</v>
       </c>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="211" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A211" s="4">
         <v>4108428</v>
       </c>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="K211" s="4"/>
     </row>
-    <row r="212" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="212" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A212" s="4">
         <v>4108430</v>
       </c>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="213" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A213" s="4">
         <v>4108424</v>
       </c>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="K213" s="4"/>
     </row>
-    <row r="214" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="214" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A214" s="4">
         <v>4108426</v>
       </c>
@@ -11000,7 +11000,7 @@
       </c>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="215" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A215" s="4">
         <v>4108567</v>
       </c>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="216" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A216" s="4">
         <v>4108568</v>
       </c>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="217" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A217" s="4">
         <v>4108546</v>
       </c>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="218" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A218" s="4">
         <v>4108547</v>
       </c>
@@ -11132,7 +11132,7 @@
       </c>
       <c r="K218" s="4"/>
     </row>
-    <row r="219" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="219" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A219" s="4">
         <v>4108548</v>
       </c>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="K219" s="4"/>
     </row>
-    <row r="220" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="220" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A220" s="4">
         <v>4108549</v>
       </c>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="K220" s="4"/>
     </row>
-    <row r="221" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="221" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A221" s="4">
         <v>4108481</v>
       </c>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="222" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A222" s="4">
         <v>4108550</v>
       </c>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="K222" s="4"/>
     </row>
-    <row r="223" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="223" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A223" s="4">
         <v>4108480</v>
       </c>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="K223" s="4"/>
     </row>
-    <row r="224" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="224" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A224" s="4">
         <v>4108483</v>
       </c>
@@ -11330,7 +11330,7 @@
       </c>
       <c r="K224" s="4"/>
     </row>
-    <row r="225" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="225" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A225" s="4">
         <v>4108484</v>
       </c>
@@ -11363,7 +11363,7 @@
       </c>
       <c r="K225" s="4"/>
     </row>
-    <row r="226" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="226" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A226" s="4">
         <v>4420731</v>
       </c>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="227" spans="1:11" s="3" customFormat="1">
       <c r="A227" s="4">
         <v>4465881</v>
       </c>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="K227" s="4"/>
     </row>
-    <row r="228" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="228" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A228" s="4">
         <v>4465882</v>
       </c>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="229" spans="1:11" s="3" customFormat="1">
       <c r="A229" s="4">
         <v>4465549</v>
       </c>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="230" spans="1:11" s="3" customFormat="1">
       <c r="A230" s="4">
         <v>4465546</v>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="231" spans="1:11" s="3" customFormat="1">
       <c r="A231" s="4">
         <v>4465938</v>
       </c>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="K231" s="4"/>
     </row>
-    <row r="232" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="232" spans="1:11" s="3" customFormat="1">
       <c r="A232" s="4">
         <v>4465883</v>
       </c>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="K232" s="4"/>
     </row>
-    <row r="233" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="233" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A233" s="4">
         <v>4465887</v>
       </c>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="K233" s="4"/>
     </row>
-    <row r="234" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="234" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A234" s="4">
         <v>4465889</v>
       </c>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="K234" s="4"/>
     </row>
-    <row r="235" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="235" spans="1:11" s="3" customFormat="1">
       <c r="A235" s="4">
         <v>4465893</v>
       </c>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="K235" s="4"/>
     </row>
-    <row r="236" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="236" spans="1:11" s="3" customFormat="1">
       <c r="A236" s="4">
         <v>4465891</v>
       </c>
@@ -11726,7 +11726,7 @@
       </c>
       <c r="K236" s="4"/>
     </row>
-    <row r="237" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="237" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A237" s="4">
         <v>4465892</v>
       </c>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="K237" s="4"/>
     </row>
-    <row r="238" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="238" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A238" s="4">
         <v>4465886</v>
       </c>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="K238" s="4"/>
     </row>
-    <row r="239" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="239" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A239" s="4">
         <v>4108488</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="K239" s="4"/>
     </row>
-    <row r="240" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="240" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A240" s="4">
         <v>4108491</v>
       </c>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="K240" s="4"/>
     </row>
-    <row r="241" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="241" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A241" s="4">
         <v>4108492</v>
       </c>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="242" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A242" s="4">
         <v>4108489</v>
       </c>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="K242" s="4"/>
     </row>
-    <row r="243" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="243" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A243" s="4">
         <v>4108496</v>
       </c>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="K243" s="4"/>
     </row>
-    <row r="244" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="244" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A244" s="4">
         <v>4108485</v>
       </c>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="K244" s="4"/>
     </row>
-    <row r="245" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="245" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A245" s="4">
         <v>4108486</v>
       </c>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="K245" s="4"/>
     </row>
-    <row r="246" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="246" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A246" s="4">
         <v>3696477</v>
       </c>
@@ -12056,7 +12056,7 @@
       </c>
       <c r="K246" s="4"/>
     </row>
-    <row r="247" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="247" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A247" s="4">
         <v>3696478</v>
       </c>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="K247" s="4"/>
     </row>
-    <row r="248" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="248" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A248" s="4">
         <v>3529316</v>
       </c>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="K248" s="4"/>
     </row>
-    <row r="249" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="249" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A249" s="4">
         <v>4108497</v>
       </c>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="K249" s="4"/>
     </row>
-    <row r="250" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="250" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A250" s="4">
         <v>4108499</v>
       </c>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="K250" s="4"/>
     </row>
-    <row r="251" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="251" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A251" s="4">
         <v>4108503</v>
       </c>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="K251" s="4"/>
     </row>
-    <row r="252" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="252" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A252" s="4">
         <v>4108501</v>
       </c>
@@ -12254,7 +12254,7 @@
       </c>
       <c r="K252" s="4"/>
     </row>
-    <row r="253" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="253" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A253" s="4">
         <v>4108507</v>
       </c>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="K253" s="4"/>
     </row>
-    <row r="254" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="254" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A254" s="4">
         <v>3696479</v>
       </c>
@@ -12320,7 +12320,7 @@
       </c>
       <c r="K254" s="4"/>
     </row>
-    <row r="255" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="255" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A255" s="4">
         <v>3529317</v>
       </c>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="K255" s="4"/>
     </row>
-    <row r="256" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="256" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A256" s="4">
         <v>4108513</v>
       </c>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="K256" s="4"/>
     </row>
-    <row r="257" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="257" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A257" s="4">
         <v>4108514</v>
       </c>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="K257" s="4"/>
     </row>
-    <row r="258" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="258" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A258" s="4">
         <v>4108517</v>
       </c>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="K258" s="4"/>
     </row>
-    <row r="259" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="259" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A259" s="4">
         <v>4108518</v>
       </c>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="K259" s="4"/>
     </row>
-    <row r="260" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="260" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A260" s="4">
         <v>4108516</v>
       </c>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="K260" s="4"/>
     </row>
-    <row r="261" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="261" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A261" s="4">
         <v>4108511</v>
       </c>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="K261" s="4"/>
     </row>
-    <row r="262" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="262" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A262" s="4">
         <v>4108512</v>
       </c>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="K262" s="4"/>
     </row>
-    <row r="263" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="263" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A263" s="4">
         <v>4108510</v>
       </c>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="K263" s="4"/>
     </row>
-    <row r="264" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="264" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A264" s="4">
         <v>2533908</v>
       </c>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="K264" s="4"/>
     </row>
-    <row r="265" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="265" spans="1:11" s="3" customFormat="1">
       <c r="A265" s="4">
         <v>3225415</v>
       </c>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="K265" s="4"/>
     </row>
-    <row r="266" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="266" spans="1:11" s="3" customFormat="1">
       <c r="A266" s="4">
         <v>3225416</v>
       </c>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="K266" s="4"/>
     </row>
-    <row r="267" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="267" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A267" s="4">
         <v>4108519</v>
       </c>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="K267" s="4"/>
     </row>
-    <row r="268" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="268" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A268" s="4">
         <v>4108521</v>
       </c>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="K268" s="4"/>
     </row>
-    <row r="269" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="269" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A269" s="4">
         <v>4108523</v>
       </c>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="K269" s="4"/>
     </row>
-    <row r="270" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="270" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A270" s="4">
         <v>4108571</v>
       </c>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="K270" s="4"/>
     </row>
-    <row r="271" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="271" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A271" s="4">
         <v>4108575</v>
       </c>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="K271" s="4"/>
     </row>
-    <row r="272" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="272" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A272" s="4">
         <v>4108586</v>
       </c>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="K272" s="4"/>
     </row>
-    <row r="273" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="273" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A273" s="4">
         <v>4108584</v>
       </c>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="K273" s="4"/>
     </row>
-    <row r="274" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="274" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A274" s="4">
         <v>4108588</v>
       </c>
@@ -12980,7 +12980,7 @@
       </c>
       <c r="K274" s="4"/>
     </row>
-    <row r="275" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="275" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A275" s="4">
         <v>4108589</v>
       </c>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="K275" s="4"/>
     </row>
-    <row r="276" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="276" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A276" s="4">
         <v>4108596</v>
       </c>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="K276" s="4"/>
     </row>
-    <row r="277" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="277" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A277" s="4">
         <v>4108594</v>
       </c>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="K277" s="4"/>
     </row>
-    <row r="278" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="278" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A278" s="4">
         <v>4108592</v>
       </c>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="K278" s="4"/>
     </row>
-    <row r="279" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="279" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A279" s="4">
         <v>4108590</v>
       </c>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="K279" s="4"/>
     </row>
-    <row r="280" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="280" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A280" s="4">
         <v>4108591</v>
       </c>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="K280" s="4"/>
     </row>
-    <row r="281" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="281" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A281" s="4">
         <v>4108598</v>
       </c>
@@ -13211,7 +13211,7 @@
       </c>
       <c r="K281" s="4"/>
     </row>
-    <row r="282" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="282" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A282" s="4">
         <v>4108598</v>
       </c>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="K282" s="4"/>
     </row>
-    <row r="283" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="283" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A283" s="4">
         <v>4108599</v>
       </c>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="K283" s="4"/>
     </row>
-    <row r="284" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="284" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A284" s="4">
         <v>4108600</v>
       </c>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="K284" s="4"/>
     </row>
-    <row r="285" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="285" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A285" s="4">
         <v>4108604</v>
       </c>
@@ -13343,7 +13343,7 @@
       </c>
       <c r="K285" s="4"/>
     </row>
-    <row r="286" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="286" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A286" s="4">
         <v>4108605</v>
       </c>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="K286" s="4"/>
     </row>
-    <row r="287" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="287" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A287" s="4">
         <v>4108608</v>
       </c>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="K287" s="4"/>
     </row>
-    <row r="288" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="288" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A288" s="4">
         <v>4108609</v>
       </c>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="K288" s="4"/>
     </row>
-    <row r="289" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="289" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A289" s="4">
         <v>4108606</v>
       </c>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="K289" s="4"/>
     </row>
-    <row r="290" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="290" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A290" s="4">
         <v>4108602</v>
       </c>
@@ -13508,7 +13508,7 @@
       </c>
       <c r="K290" s="4"/>
     </row>
-    <row r="291" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="291" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A291" s="4">
         <v>4108603</v>
       </c>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="K291" s="4"/>
     </row>
-    <row r="292" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="292" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A292" s="4">
         <v>4108611</v>
       </c>
@@ -13574,7 +13574,7 @@
       </c>
       <c r="K292" s="4"/>
     </row>
-    <row r="293" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="293" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A293" s="4">
         <v>4108612</v>
       </c>
@@ -13607,7 +13607,7 @@
       </c>
       <c r="K293" s="4"/>
     </row>
-    <row r="294" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="294" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A294" s="4">
         <v>4108613</v>
       </c>
@@ -13640,7 +13640,7 @@
       </c>
       <c r="K294" s="4"/>
     </row>
-    <row r="295" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="295" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A295" s="4">
         <v>4108614</v>
       </c>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="K295" s="4"/>
     </row>
-    <row r="296" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="296" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A296" s="4">
         <v>4108476</v>
       </c>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="K296" s="4"/>
     </row>
-    <row r="297" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="297" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A297" s="4">
         <v>4108477</v>
       </c>
@@ -13739,7 +13739,7 @@
       </c>
       <c r="K297" s="4"/>
     </row>
-    <row r="298" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="298" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A298" s="4">
         <v>4108474</v>
       </c>
@@ -13772,7 +13772,7 @@
       </c>
       <c r="K298" s="4"/>
     </row>
-    <row r="299" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="299" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A299" s="4">
         <v>4108479</v>
       </c>
@@ -13805,7 +13805,7 @@
       </c>
       <c r="K299" s="4"/>
     </row>
-    <row r="300" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="300" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A300" s="4">
         <v>3529319</v>
       </c>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="K300" s="4"/>
     </row>
-    <row r="301" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="301" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A301" s="4">
         <v>4108580</v>
       </c>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="K301" s="4"/>
     </row>
-    <row r="302" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="302" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A302" s="4">
         <v>4108581</v>
       </c>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="K302" s="4"/>
     </row>
-    <row r="303" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="303" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A303" s="4">
         <v>4108527</v>
       </c>
@@ -13937,7 +13937,7 @@
       </c>
       <c r="K303" s="4"/>
     </row>
-    <row r="304" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="304" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A304" s="4">
         <v>4108582</v>
       </c>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="K304" s="4"/>
     </row>
-    <row r="305" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="305" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A305" s="4">
         <v>4108578</v>
       </c>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="K305" s="4"/>
     </row>
-    <row r="306" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="306" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A306" s="4">
         <v>4108579</v>
       </c>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="K306" s="4"/>
     </row>
-    <row r="307" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="307" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A307" s="4">
         <v>4465902</v>
       </c>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="K307" s="4"/>
     </row>
-    <row r="308" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="308" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A308" s="4">
         <v>4108529</v>
       </c>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="K308" s="4"/>
     </row>
-    <row r="309" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="309" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A309" s="4">
         <v>4108530</v>
       </c>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="K309" s="4"/>
     </row>
-    <row r="310" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="310" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A310" s="4">
         <v>4108531</v>
       </c>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="K310" s="4"/>
     </row>
-    <row r="311" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="311" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A311" s="4">
         <v>4108532</v>
       </c>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="K311" s="4"/>
     </row>
-    <row r="312" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="312" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A312" s="4">
         <v>4108533</v>
       </c>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="K312" s="4"/>
     </row>
-    <row r="313" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="313" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A313" s="4">
         <v>4108537</v>
       </c>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="K313" s="4"/>
     </row>
-    <row r="314" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="314" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A314" s="4">
         <v>4108535</v>
       </c>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="K314" s="4"/>
     </row>
-    <row r="315" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="315" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A315" s="4">
         <v>4465904</v>
       </c>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="K315" s="4"/>
     </row>
-    <row r="316" spans="1:11" s="3" customFormat="1" ht="77.25">
+    <row r="316" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A316" s="4">
         <v>4465905</v>
       </c>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="K316" s="4"/>
     </row>
-    <row r="317" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="317" spans="1:11" s="3" customFormat="1">
       <c r="A317" s="4">
         <v>4198522</v>
       </c>
@@ -14399,7 +14399,7 @@
       </c>
       <c r="K317" s="4"/>
     </row>
-    <row r="318" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="318" spans="1:11" s="3" customFormat="1">
       <c r="A318" s="4">
         <v>4198535</v>
       </c>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="K318" s="4"/>
     </row>
-    <row r="319" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="319" spans="1:11" s="3" customFormat="1">
       <c r="A319" s="4">
         <v>4198524</v>
       </c>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="K319" s="4"/>
     </row>
-    <row r="320" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="320" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A320" s="4">
         <v>4198537</v>
       </c>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="K320" s="4"/>
     </row>
-    <row r="321" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="321" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A321" s="4">
         <v>4198541</v>
       </c>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="K321" s="4"/>
     </row>
-    <row r="322" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="322" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A322" s="4">
         <v>4198502</v>
       </c>
@@ -14564,7 +14564,7 @@
       </c>
       <c r="K322" s="4"/>
     </row>
-    <row r="323" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="323" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A323" s="4">
         <v>4198480</v>
       </c>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="K323" s="4"/>
     </row>
-    <row r="324" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="324" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A324" s="4">
         <v>4198539</v>
       </c>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="K324" s="4"/>
     </row>
-    <row r="325" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="325" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A325" s="4">
         <v>4198504</v>
       </c>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="K325" s="4"/>
     </row>
-    <row r="326" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="326" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A326" s="4">
         <v>4198506</v>
       </c>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="K326" s="4"/>
     </row>
-    <row r="327" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="327" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A327" s="4">
         <v>4198525</v>
       </c>
@@ -14729,7 +14729,7 @@
       </c>
       <c r="K327" s="4"/>
     </row>
-    <row r="328" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="328" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A328" s="4">
         <v>4198529</v>
       </c>
@@ -14762,7 +14762,7 @@
       </c>
       <c r="K328" s="4"/>
     </row>
-    <row r="329" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="329" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A329" s="4">
         <v>4198531</v>
       </c>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="K329" s="4"/>
     </row>
-    <row r="330" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="330" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A330" s="4">
         <v>4198532</v>
       </c>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="K330" s="4"/>
     </row>
-    <row r="331" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="331" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A331" s="4">
         <v>4198509</v>
       </c>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="K331" s="4"/>
     </row>
-    <row r="332" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="332" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A332" s="4">
         <v>4198510</v>
       </c>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="K332" s="4"/>
     </row>
-    <row r="333" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="333" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A333" s="4">
         <v>4198513</v>
       </c>
@@ -14927,7 +14927,7 @@
       </c>
       <c r="K333" s="4"/>
     </row>
-    <row r="334" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="334" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A334" s="4">
         <v>4198514</v>
       </c>
@@ -14960,7 +14960,7 @@
       </c>
       <c r="K334" s="4"/>
     </row>
-    <row r="335" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="335" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A335" s="4">
         <v>4198511</v>
       </c>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="K335" s="4"/>
     </row>
-    <row r="336" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="336" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A336" s="4">
         <v>4198512</v>
       </c>
@@ -15026,7 +15026,7 @@
       </c>
       <c r="K336" s="4"/>
     </row>
-    <row r="337" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="337" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A337" s="4">
         <v>4198508</v>
       </c>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="K337" s="4"/>
     </row>
-    <row r="338" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="338" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A338" s="4">
         <v>4198515</v>
       </c>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="K338" s="4"/>
     </row>
-    <row r="339" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="339" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A339" s="4">
         <v>4198516</v>
       </c>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="K339" s="4"/>
     </row>
-    <row r="340" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="340" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A340" s="4">
         <v>4465908</v>
       </c>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="K340" s="4"/>
     </row>
-    <row r="341" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="341" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A341" s="4">
         <v>4420360</v>
       </c>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="K341" s="4"/>
     </row>
-    <row r="342" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="342" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A342" s="4">
         <v>4465910</v>
       </c>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="K342" s="4"/>
     </row>
-    <row r="343" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="343" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A343" s="4">
         <v>4465913</v>
       </c>
@@ -15257,7 +15257,7 @@
       </c>
       <c r="K343" s="4"/>
     </row>
-    <row r="344" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="344" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A344" s="4">
         <v>4465915</v>
       </c>
@@ -15290,7 +15290,7 @@
       </c>
       <c r="K344" s="4"/>
     </row>
-    <row r="345" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="345" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A345" s="4">
         <v>4465906</v>
       </c>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="K345" s="4"/>
     </row>
-    <row r="346" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="346" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A346" s="4">
         <v>4465929</v>
       </c>
@@ -15356,7 +15356,7 @@
       </c>
       <c r="K346" s="4"/>
     </row>
-    <row r="347" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="347" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A347" s="4">
         <v>4465919</v>
       </c>
@@ -15389,7 +15389,7 @@
       </c>
       <c r="K347" s="4"/>
     </row>
-    <row r="348" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="348" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A348" s="4">
         <v>4465921</v>
       </c>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="K348" s="4"/>
     </row>
-    <row r="349" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="349" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A349" s="4">
         <v>4465925</v>
       </c>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="K349" s="4"/>
     </row>
-    <row r="350" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="350" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A350" s="4">
         <v>4465923</v>
       </c>
@@ -15488,7 +15488,7 @@
       </c>
       <c r="K350" s="4"/>
     </row>
-    <row r="351" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="351" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A351" s="4">
         <v>4465931</v>
       </c>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="K351" s="4"/>
     </row>
-    <row r="352" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="352" spans="1:11" s="3" customFormat="1">
       <c r="A352" s="4">
         <v>4514999</v>
       </c>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="K352" s="4"/>
     </row>
-    <row r="353" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="353" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A353" s="4">
         <v>4515000</v>
       </c>
@@ -15587,7 +15587,7 @@
       </c>
       <c r="K353" s="4"/>
     </row>
-    <row r="354" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="354" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A354" s="4">
         <v>4515005</v>
       </c>
@@ -15620,7 +15620,7 @@
       </c>
       <c r="K354" s="4"/>
     </row>
-    <row r="355" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="355" spans="1:11" s="3" customFormat="1">
       <c r="A355" s="4">
         <v>4515001</v>
       </c>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="K355" s="4"/>
     </row>
-    <row r="356" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="356" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A356" s="4">
         <v>4515003</v>
       </c>
@@ -15686,7 +15686,7 @@
       </c>
       <c r="K356" s="4"/>
     </row>
-    <row r="357" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="357" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A357" s="4">
         <v>4515004</v>
       </c>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="K357" s="4"/>
     </row>
-    <row r="358" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="358" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A358" s="4">
         <v>4682159</v>
       </c>
@@ -15752,7 +15752,7 @@
       </c>
       <c r="K358" s="4"/>
     </row>
-    <row r="359" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="359" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A359" s="4">
         <v>4682160</v>
       </c>
@@ -15785,7 +15785,7 @@
       </c>
       <c r="K359" s="4"/>
     </row>
-    <row r="360" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="360" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A360" s="4">
         <v>4682403</v>
       </c>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="K360" s="4"/>
     </row>
-    <row r="361" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="361" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A361" s="4">
         <v>4682404</v>
       </c>
@@ -15851,7 +15851,7 @@
       </c>
       <c r="K361" s="4"/>
     </row>
-    <row r="362" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="362" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A362" s="4">
         <v>4682401</v>
       </c>
@@ -15884,7 +15884,7 @@
       </c>
       <c r="K362" s="4"/>
     </row>
-    <row r="363" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="363" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A363" s="4">
         <v>4682402</v>
       </c>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="K363" s="4"/>
     </row>
-    <row r="364" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="364" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A364" s="4">
         <v>4682417</v>
       </c>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="K364" s="4"/>
     </row>
-    <row r="365" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="365" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A365" s="4">
         <v>4682158</v>
       </c>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="K365" s="4"/>
     </row>
-    <row r="366" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="366" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A366" s="4">
         <v>4682406</v>
       </c>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="K366" s="4"/>
     </row>
-    <row r="367" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="367" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A367" s="4">
         <v>4682405</v>
       </c>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="K367" s="4"/>
     </row>
-    <row r="368" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="368" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A368" s="4">
         <v>4682409</v>
       </c>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="K368" s="4"/>
     </row>
-    <row r="369" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="369" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A369" s="4">
         <v>4682410</v>
       </c>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="K369" s="4"/>
     </row>
-    <row r="370" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="370" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A370" s="4">
         <v>4682413</v>
       </c>
@@ -16148,7 +16148,7 @@
       </c>
       <c r="K370" s="4"/>
     </row>
-    <row r="371" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="371" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A371" s="4">
         <v>4682414</v>
       </c>
@@ -16181,7 +16181,7 @@
       </c>
       <c r="K371" s="4"/>
     </row>
-    <row r="372" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="372" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A372" s="4">
         <v>4682411</v>
       </c>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="K372" s="4"/>
     </row>
-    <row r="373" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="373" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A373" s="4">
         <v>4682412</v>
       </c>
@@ -16247,7 +16247,7 @@
       </c>
       <c r="K373" s="4"/>
     </row>
-    <row r="374" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="374" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A374" s="4">
         <v>4682407</v>
       </c>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="K374" s="4"/>
     </row>
-    <row r="375" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="375" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A375" s="4">
         <v>4682408</v>
       </c>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="K375" s="4"/>
     </row>
-    <row r="376" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="376" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A376" s="4">
         <v>4682416</v>
       </c>
@@ -16346,7 +16346,7 @@
       </c>
       <c r="K376" s="4"/>
     </row>
-    <row r="377" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="377" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A377" s="4">
         <v>4682415</v>
       </c>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="K377" s="4"/>
     </row>
-    <row r="378" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="378" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A378" s="4">
         <v>3014378</v>
       </c>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="K378" s="4"/>
     </row>
-    <row r="379" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="379" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A379" s="4">
         <v>3014379</v>
       </c>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="K379" s="4"/>
     </row>
-    <row r="380" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="380" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A380" s="4">
         <v>3014381</v>
       </c>
@@ -16478,7 +16478,7 @@
       </c>
       <c r="K380" s="4"/>
     </row>
-    <row r="381" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="381" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A381" s="4">
         <v>3014380</v>
       </c>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="K381" s="4"/>
     </row>
-    <row r="382" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="382" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A382" s="4">
         <v>3014375</v>
       </c>
@@ -16544,7 +16544,7 @@
       </c>
       <c r="K382" s="4"/>
     </row>
-    <row r="383" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="383" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A383" s="4">
         <v>3014377</v>
       </c>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="K383" s="4"/>
     </row>
-    <row r="384" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="384" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A384" s="4">
         <v>3014376</v>
       </c>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="K384" s="4"/>
     </row>
-    <row r="385" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="385" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A385" s="4">
         <v>3014374</v>
       </c>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="K385" s="4"/>
     </row>
-    <row r="386" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="386" spans="1:11" s="3" customFormat="1">
       <c r="A386" s="4">
         <v>509004</v>
       </c>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="K386" s="4"/>
     </row>
-    <row r="387" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="387" spans="1:11" s="3" customFormat="1">
       <c r="A387" s="4">
         <v>537232</v>
       </c>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="K387" s="4"/>
     </row>
-    <row r="388" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="388" spans="1:11" s="3" customFormat="1">
       <c r="A388" s="4">
         <v>517211</v>
       </c>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="K388" s="4"/>
     </row>
-    <row r="389" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="389" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A389" s="4">
         <v>2342862</v>
       </c>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="K389" s="4"/>
     </row>
-    <row r="390" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="390" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A390" s="4">
         <v>2342857</v>
       </c>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="K390" s="4"/>
     </row>
-    <row r="391" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="391" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A391" s="4">
         <v>2342856</v>
       </c>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="K391" s="4"/>
     </row>
-    <row r="392" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="392" spans="1:11" s="3" customFormat="1">
       <c r="A392" s="4">
         <v>859713</v>
       </c>
@@ -16874,7 +16874,7 @@
       </c>
       <c r="K392" s="4"/>
     </row>
-    <row r="393" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="393" spans="1:11" s="3" customFormat="1">
       <c r="A393" s="4">
         <v>2157930</v>
       </c>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="K393" s="4"/>
     </row>
-    <row r="394" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="394" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A394" s="4">
         <v>3477492</v>
       </c>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="K394" s="4"/>
     </row>
-    <row r="395" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="395" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A395" s="4">
         <v>2342867</v>
       </c>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="K395" s="4"/>
     </row>
-    <row r="396" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="396" spans="1:11" s="3" customFormat="1">
       <c r="A396" s="4">
         <v>299539</v>
       </c>
@@ -17039,7 +17039,7 @@
       </c>
       <c r="K397" s="4"/>
     </row>
-    <row r="398" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="398" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A398" s="4">
         <v>2407449</v>
       </c>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="K398" s="4"/>
     </row>
-    <row r="399" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="399" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A399" s="4">
         <v>2407497</v>
       </c>
@@ -17105,7 +17105,7 @@
       </c>
       <c r="K399" s="4"/>
     </row>
-    <row r="400" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="400" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A400" s="4">
         <v>2407496</v>
       </c>
@@ -17138,7 +17138,7 @@
       </c>
       <c r="K400" s="4"/>
     </row>
-    <row r="401" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="401" spans="1:11" s="3" customFormat="1">
       <c r="A401" s="4">
         <v>704999</v>
       </c>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="K401" s="4"/>
     </row>
-    <row r="402" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="402" spans="1:11" s="3" customFormat="1">
       <c r="A402" s="4">
         <v>537246</v>
       </c>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="K402" s="4"/>
     </row>
-    <row r="403" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="403" spans="1:11" s="3" customFormat="1">
       <c r="A403" s="4">
         <v>537248</v>
       </c>
@@ -17237,7 +17237,7 @@
       </c>
       <c r="K403" s="4"/>
     </row>
-    <row r="404" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="404" spans="1:11" s="3" customFormat="1">
       <c r="A404" s="4">
         <v>4458783</v>
       </c>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="K404" s="4"/>
     </row>
-    <row r="405" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="405" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A405" s="4">
         <v>4095910</v>
       </c>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="K405" s="4"/>
     </row>
-    <row r="406" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="406" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A406" s="4">
         <v>4110225</v>
       </c>
@@ -17336,7 +17336,7 @@
       </c>
       <c r="K406" s="4"/>
     </row>
-    <row r="407" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="407" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A407" s="4">
         <v>4136454</v>
       </c>
@@ -17369,7 +17369,7 @@
       </c>
       <c r="K407" s="4"/>
     </row>
-    <row r="408" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="408" spans="1:11" s="3" customFormat="1">
       <c r="A408" s="4">
         <v>4095906</v>
       </c>
@@ -17402,7 +17402,7 @@
       </c>
       <c r="K408" s="4"/>
     </row>
-    <row r="409" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="409" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A409" s="4">
         <v>4095914</v>
       </c>
@@ -17435,7 +17435,7 @@
       </c>
       <c r="K409" s="4"/>
     </row>
-    <row r="410" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="410" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A410" s="4">
         <v>4095912</v>
       </c>
@@ -17468,7 +17468,7 @@
       </c>
       <c r="K410" s="4"/>
     </row>
-    <row r="411" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="411" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A411" s="4">
         <v>4095916</v>
       </c>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="K411" s="4"/>
     </row>
-    <row r="412" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="412" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A412" s="4">
         <v>3321828</v>
       </c>
@@ -17534,7 +17534,7 @@
       </c>
       <c r="K412" s="4"/>
     </row>
-    <row r="413" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="413" spans="1:11" s="3" customFormat="1">
       <c r="A413" s="4">
         <v>3321991</v>
       </c>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="K413" s="4"/>
     </row>
-    <row r="414" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="414" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A414" s="4">
         <v>3330855</v>
       </c>
@@ -17600,7 +17600,7 @@
       </c>
       <c r="K414" s="4"/>
     </row>
-    <row r="415" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="415" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A415" s="4">
         <v>4099912</v>
       </c>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="K415" s="4"/>
     </row>
-    <row r="416" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="416" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A416" s="4">
         <v>4067417</v>
       </c>
@@ -17666,7 +17666,7 @@
       </c>
       <c r="K416" s="4"/>
     </row>
-    <row r="417" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="417" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A417" s="4">
         <v>4067767</v>
       </c>
@@ -17699,7 +17699,7 @@
       </c>
       <c r="K417" s="4"/>
     </row>
-    <row r="418" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="418" spans="1:11" s="3" customFormat="1">
       <c r="A418" s="4">
         <v>4067415</v>
       </c>
@@ -17732,7 +17732,7 @@
       </c>
       <c r="K418" s="4"/>
     </row>
-    <row r="419" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="419" spans="1:11" s="3" customFormat="1">
       <c r="A419" s="4">
         <v>4067775</v>
       </c>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="K419" s="4"/>
     </row>
-    <row r="420" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="420" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A420" s="4">
         <v>4067441</v>
       </c>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="K420" s="4"/>
     </row>
-    <row r="421" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="421" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A421" s="4">
         <v>4067774</v>
       </c>
@@ -17831,7 +17831,7 @@
       </c>
       <c r="K421" s="4"/>
     </row>
-    <row r="422" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="422" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A422" s="4">
         <v>4067776</v>
       </c>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="K422" s="4"/>
     </row>
-    <row r="423" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="423" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A423" s="4">
         <v>4067777</v>
       </c>
@@ -17897,7 +17897,7 @@
       </c>
       <c r="K423" s="4"/>
     </row>
-    <row r="424" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="424" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A424" s="4">
         <v>4485383</v>
       </c>
@@ -17930,7 +17930,7 @@
       </c>
       <c r="K424" s="4"/>
     </row>
-    <row r="425" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="425" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A425" s="4">
         <v>4458785</v>
       </c>
@@ -17963,7 +17963,7 @@
       </c>
       <c r="K425" s="4"/>
     </row>
-    <row r="426" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="426" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A426" s="4">
         <v>3818385</v>
       </c>
@@ -17996,7 +17996,7 @@
       </c>
       <c r="K426" s="4"/>
     </row>
-    <row r="427" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="427" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A427" s="4">
         <v>3913788</v>
       </c>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="K427" s="4"/>
     </row>
-    <row r="428" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="428" spans="1:11" s="3" customFormat="1">
       <c r="A428" s="4">
         <v>4443660</v>
       </c>
@@ -18062,7 +18062,7 @@
       </c>
       <c r="K428" s="4"/>
     </row>
-    <row r="429" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="429" spans="1:11" s="3" customFormat="1">
       <c r="A429" s="4">
         <v>4458580</v>
       </c>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="K429" s="4"/>
     </row>
-    <row r="430" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="430" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A430" s="4">
         <v>4429249</v>
       </c>
@@ -18128,7 +18128,7 @@
       </c>
       <c r="K430" s="4"/>
     </row>
-    <row r="431" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="431" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A431" s="4">
         <v>4458782</v>
       </c>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="K431" s="4"/>
     </row>
-    <row r="432" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="432" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A432" s="4">
         <v>4443858</v>
       </c>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="K432" s="4"/>
     </row>
-    <row r="433" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="433" spans="1:11" s="3" customFormat="1">
       <c r="A433" s="4">
         <v>4458781</v>
       </c>
@@ -18227,7 +18227,7 @@
       </c>
       <c r="K433" s="4"/>
     </row>
-    <row r="434" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="434" spans="1:11" s="3" customFormat="1">
       <c r="A434" s="4">
         <v>4443855</v>
       </c>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="K434" s="4"/>
     </row>
-    <row r="435" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="435" spans="1:11" s="3" customFormat="1">
       <c r="A435" s="4">
         <v>1028240</v>
       </c>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="K435" s="4"/>
     </row>
-    <row r="436" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="436" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A436" s="4">
         <v>4429796</v>
       </c>
@@ -18326,7 +18326,7 @@
       </c>
       <c r="K436" s="4"/>
     </row>
-    <row r="437" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="437" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A437" s="4">
         <v>4137005</v>
       </c>
@@ -18359,7 +18359,7 @@
       </c>
       <c r="K437" s="4"/>
     </row>
-    <row r="438" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="438" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A438" s="4">
         <v>4137393</v>
       </c>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="K438" s="4"/>
     </row>
-    <row r="439" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="439" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A439" s="4">
         <v>4429250</v>
       </c>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="K439" s="4"/>
     </row>
-    <row r="440" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="440" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A440" s="4">
         <v>4429251</v>
       </c>
@@ -18458,7 +18458,7 @@
       </c>
       <c r="K440" s="4"/>
     </row>
-    <row r="441" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="441" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A441" s="4">
         <v>4429255</v>
       </c>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="K441" s="4"/>
     </row>
-    <row r="442" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="442" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A442" s="4">
         <v>4428386</v>
       </c>
@@ -18524,7 +18524,7 @@
       </c>
       <c r="K442" s="4"/>
     </row>
-    <row r="443" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="443" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A443" s="4">
         <v>3521148</v>
       </c>
@@ -18557,7 +18557,7 @@
       </c>
       <c r="K443" s="4"/>
     </row>
-    <row r="444" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="444" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A444" s="4">
         <v>4428387</v>
       </c>
@@ -18590,7 +18590,7 @@
       </c>
       <c r="K444" s="4"/>
     </row>
-    <row r="445" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="445" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A445" s="4">
         <v>4428388</v>
       </c>
@@ -18623,7 +18623,7 @@
       </c>
       <c r="K445" s="4"/>
     </row>
-    <row r="446" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="446" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A446" s="4">
         <v>4429807</v>
       </c>
@@ -18656,7 +18656,7 @@
       </c>
       <c r="K446" s="4"/>
     </row>
-    <row r="447" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="447" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A447" s="4">
         <v>3874871</v>
       </c>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="K447" s="4"/>
     </row>
-    <row r="448" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="448" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A448" s="4">
         <v>2502109</v>
       </c>
@@ -18722,7 +18722,7 @@
       </c>
       <c r="K448" s="4"/>
     </row>
-    <row r="449" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="449" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A449" s="4">
         <v>3056454</v>
       </c>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="K449" s="4"/>
     </row>
-    <row r="450" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="450" spans="1:11" s="3" customFormat="1">
       <c r="A450" s="4">
         <v>3984467</v>
       </c>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="K450" s="4"/>
     </row>
-    <row r="451" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="451" spans="1:11" s="3" customFormat="1">
       <c r="A451" s="4">
         <v>3810575</v>
       </c>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="K451" s="4"/>
     </row>
-    <row r="452" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="452" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A452" s="4">
         <v>1589880</v>
       </c>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="K452" s="4"/>
     </row>
-    <row r="453" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="453" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A453" s="4">
         <v>1722764</v>
       </c>
@@ -18887,7 +18887,7 @@
       </c>
       <c r="K453" s="4"/>
     </row>
-    <row r="454" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="454" spans="1:11" s="3" customFormat="1">
       <c r="A454" s="4">
         <v>1777522</v>
       </c>
@@ -18920,7 +18920,7 @@
       </c>
       <c r="K454" s="4"/>
     </row>
-    <row r="455" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="455" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A455" s="4">
         <v>1992182</v>
       </c>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="K455" s="4"/>
     </row>
-    <row r="456" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="456" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A456" s="4">
         <v>1877219</v>
       </c>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="K456" s="4"/>
     </row>
-    <row r="457" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="457" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A457" s="4">
         <v>1877231</v>
       </c>
@@ -19019,7 +19019,7 @@
       </c>
       <c r="K457" s="4"/>
     </row>
-    <row r="458" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="458" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A458" s="4">
         <v>1877175</v>
       </c>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="K458" s="4"/>
     </row>
-    <row r="459" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="459" spans="1:11" s="3" customFormat="1">
       <c r="A459" s="4">
         <v>1878079</v>
       </c>
@@ -19085,7 +19085,7 @@
       </c>
       <c r="K459" s="4"/>
     </row>
-    <row r="460" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="460" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A460" s="4">
         <v>2069668</v>
       </c>
@@ -19118,7 +19118,7 @@
       </c>
       <c r="K460" s="4"/>
     </row>
-    <row r="461" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="461" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A461" s="4">
         <v>2157697</v>
       </c>
@@ -19151,7 +19151,7 @@
       </c>
       <c r="K461" s="4"/>
     </row>
-    <row r="462" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="462" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A462" s="4">
         <v>2157698</v>
       </c>
@@ -19184,7 +19184,7 @@
       </c>
       <c r="K462" s="4"/>
     </row>
-    <row r="463" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="463" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A463" s="4">
         <v>2157699</v>
       </c>
@@ -19217,7 +19217,7 @@
       </c>
       <c r="K463" s="4"/>
     </row>
-    <row r="464" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="464" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A464" s="4">
         <v>2157700</v>
       </c>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="K464" s="4"/>
     </row>
-    <row r="465" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="465" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A465" s="4">
         <v>2253994</v>
       </c>
@@ -19283,7 +19283,7 @@
       </c>
       <c r="K465" s="4"/>
     </row>
-    <row r="466" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="466" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A466" s="4">
         <v>2295688</v>
       </c>
@@ -19316,7 +19316,7 @@
       </c>
       <c r="K466" s="4"/>
     </row>
-    <row r="467" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="467" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A467" s="4">
         <v>2314552</v>
       </c>
@@ -19349,7 +19349,7 @@
       </c>
       <c r="K467" s="4"/>
     </row>
-    <row r="468" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="468" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A468" s="4">
         <v>2356869</v>
       </c>
@@ -19382,7 +19382,7 @@
       </c>
       <c r="K468" s="4"/>
     </row>
-    <row r="469" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="469" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A469" s="4">
         <v>2370534</v>
       </c>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="K469" s="4"/>
     </row>
-    <row r="470" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="470" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A470" s="4">
         <v>2396396</v>
       </c>
@@ -19448,7 +19448,7 @@
       </c>
       <c r="K470" s="4"/>
     </row>
-    <row r="471" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="471" spans="1:11" s="3" customFormat="1" ht="39">
       <c r="A471" s="4">
         <v>2396399</v>
       </c>
@@ -19481,7 +19481,7 @@
       </c>
       <c r="K471" s="4"/>
     </row>
-    <row r="472" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="472" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A472" s="4">
         <v>2534113</v>
       </c>
@@ -19514,7 +19514,7 @@
       </c>
       <c r="K472" s="4"/>
     </row>
-    <row r="473" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="473" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A473" s="4">
         <v>2534116</v>
       </c>
@@ -19547,7 +19547,7 @@
       </c>
       <c r="K473" s="4"/>
     </row>
-    <row r="474" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="474" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A474" s="4">
         <v>2777513</v>
       </c>
@@ -19580,7 +19580,7 @@
       </c>
       <c r="K474" s="4"/>
     </row>
-    <row r="475" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="475" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A475" s="4">
         <v>2832090</v>
       </c>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="K475" s="4"/>
     </row>
-    <row r="476" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="476" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A476" s="4">
         <v>2927768</v>
       </c>
@@ -19646,7 +19646,7 @@
       </c>
       <c r="K476" s="4"/>
     </row>
-    <row r="477" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="477" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A477" s="4">
         <v>3084870</v>
       </c>
@@ -19679,7 +19679,7 @@
       </c>
       <c r="K477" s="4"/>
     </row>
-    <row r="478" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="478" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A478" s="4">
         <v>3084871</v>
       </c>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="K478" s="4"/>
     </row>
-    <row r="479" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="479" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A479" s="4">
         <v>3276776</v>
       </c>
@@ -19745,7 +19745,7 @@
       </c>
       <c r="K479" s="4"/>
     </row>
-    <row r="480" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="480" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A480" s="4">
         <v>3276777</v>
       </c>
@@ -19778,7 +19778,7 @@
       </c>
       <c r="K480" s="4"/>
     </row>
-    <row r="481" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="481" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A481" s="4">
         <v>3374991</v>
       </c>
@@ -19811,7 +19811,7 @@
       </c>
       <c r="K481" s="4"/>
     </row>
-    <row r="482" spans="1:11" s="3" customFormat="1" ht="64.5">
+    <row r="482" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A482" s="4">
         <v>3417161</v>
       </c>
@@ -19844,7 +19844,7 @@
       </c>
       <c r="K482" s="4"/>
     </row>
-    <row r="483" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="483" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A483" s="4">
         <v>3892819</v>
       </c>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="K483" s="4"/>
     </row>
-    <row r="484" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="484" spans="1:11" s="3" customFormat="1">
       <c r="A484" s="4">
         <v>4520785</v>
       </c>
@@ -19910,7 +19910,7 @@
       </c>
       <c r="K484" s="4"/>
     </row>
-    <row r="485" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="485" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A485" s="4">
         <v>1598040</v>
       </c>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="K485" s="4"/>
     </row>
-    <row r="486" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="486" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A486" s="4">
         <v>2370529</v>
       </c>
@@ -19976,7 +19976,7 @@
       </c>
       <c r="K486" s="4"/>
     </row>
-    <row r="487" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="487" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A487" s="4">
         <v>3364116</v>
       </c>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="K487" s="4"/>
     </row>
-    <row r="488" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="488" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A488" s="4">
         <v>1331824</v>
       </c>
@@ -20042,7 +20042,7 @@
       </c>
       <c r="K488" s="4"/>
     </row>
-    <row r="489" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="489" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A489" s="4">
         <v>772212</v>
       </c>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="K489" s="4"/>
     </row>
-    <row r="490" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="490" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A490" s="4">
         <v>772212</v>
       </c>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="K490" s="4"/>
     </row>
-    <row r="491" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="491" spans="1:11" s="3" customFormat="1">
       <c r="A491" s="4">
         <v>772210</v>
       </c>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="K491" s="4"/>
     </row>
-    <row r="492" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="492" spans="1:11" s="3" customFormat="1">
       <c r="A492" s="4">
         <v>891797</v>
       </c>
@@ -20174,7 +20174,7 @@
       </c>
       <c r="K492" s="4"/>
     </row>
-    <row r="493" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="493" spans="1:11" s="3" customFormat="1">
       <c r="A493" s="4">
         <v>1009401</v>
       </c>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="K494" s="4"/>
     </row>
-    <row r="495" spans="1:11" s="3" customFormat="1" ht="39">
+    <row r="495" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A495" s="4">
         <v>1009468</v>
       </c>
@@ -20339,7 +20339,7 @@
       </c>
       <c r="K497" s="4"/>
     </row>
-    <row r="498" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="498" spans="1:11" s="3" customFormat="1">
       <c r="A498" s="4">
         <v>2342911</v>
       </c>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="K498" s="4"/>
     </row>
-    <row r="499" spans="1:11" s="3" customFormat="1" ht="26.25">
+    <row r="499" spans="1:11" s="3" customFormat="1">
       <c r="A499" s="4">
         <v>4108379</v>
       </c>
@@ -20405,7 +20405,7 @@
       </c>
       <c r="K499" s="4"/>
     </row>
-    <row r="500" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="500" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A500" s="4">
         <v>3952292</v>
       </c>
@@ -20438,7 +20438,7 @@
       </c>
       <c r="K500" s="4"/>
     </row>
-    <row r="501" spans="1:11" s="3" customFormat="1" ht="51.75">
+    <row r="501" spans="1:11" s="3" customFormat="1" ht="26.25">
       <c r="A501" s="4">
         <v>3952297</v>
       </c>
